--- a/example input data.xlsx
+++ b/example input data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitatolstoy/MyBoss/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CE6E52-7F51-4945-B806-6A21AD6AFB4E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BEEC6E-52C6-E64B-9D7E-5A73CF2AF6BB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15840" activeTab="2" xr2:uid="{37419241-022C-1E4F-AB89-39142F5DE753}"/>
   </bookViews>
